--- a/analytical/results_full/analise.xlsx
+++ b/analytical/results_full/analise.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PG54469\ABD\TrabalhoPratico\stackBenchmark\analytical\results_full\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499EBFF0-F5D9-4920-8346-4AD0F88F0915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FF78964-EB8B-44ED-87D7-AA536EE7F385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{2B39F3A4-8433-4A18-B370-EAB04CDD549E}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="911" uniqueCount="35">
   <si>
     <t>QUERY</t>
   </si>
@@ -106,6 +106,42 @@
   </si>
   <si>
     <t>q1_creation_clustered_idx_sb_2GB_wm_1GB</t>
+  </si>
+  <si>
+    <t>Q2</t>
+  </si>
+  <si>
+    <t>q2</t>
+  </si>
+  <si>
+    <t>Q2_V1</t>
+  </si>
+  <si>
+    <t>q2_v1_sem_novos_indices</t>
+  </si>
+  <si>
+    <t>q2_v1_novos_indices</t>
+  </si>
+  <si>
+    <t>Q2_V2</t>
+  </si>
+  <si>
+    <t>q2_v2_novos_indices</t>
+  </si>
+  <si>
+    <t>Q2_V3</t>
+  </si>
+  <si>
+    <t>q2_v3_mat_view</t>
+  </si>
+  <si>
+    <t>q2_v3_sb_2GB_wm_1GB</t>
+  </si>
+  <si>
+    <t>q2_v3_sb_2GB_wm_1GB_16wp</t>
+  </si>
+  <si>
+    <t>q2_v3_16wp</t>
   </si>
 </sst>
 </file>
@@ -543,10 +579,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11908BBE-95A2-4A0D-96A0-2B0F85B944AF}">
-  <dimension ref="A1:E253"/>
+  <dimension ref="A1:E406"/>
   <sheetViews>
-    <sheetView topLeftCell="A224" workbookViewId="0">
-      <selection activeCell="A245" sqref="A245:XFD245"/>
+    <sheetView topLeftCell="A382" workbookViewId="0">
+      <selection activeCell="A398" sqref="A398"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4855,6 +4891,2607 @@
         <v>42</v>
       </c>
     </row>
+    <row r="254" spans="1:5">
+      <c r="A254" t="s">
+        <v>24</v>
+      </c>
+      <c r="B254" t="s">
+        <v>23</v>
+      </c>
+      <c r="C254">
+        <v>0.53600000000000003</v>
+      </c>
+      <c r="D254">
+        <v>14940.058999999999</v>
+      </c>
+      <c r="E254">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5">
+      <c r="A255" t="s">
+        <v>24</v>
+      </c>
+      <c r="B255" t="s">
+        <v>23</v>
+      </c>
+      <c r="C255">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D255">
+        <v>14328.72</v>
+      </c>
+      <c r="E255">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5">
+      <c r="A256" t="s">
+        <v>24</v>
+      </c>
+      <c r="B256" t="s">
+        <v>23</v>
+      </c>
+      <c r="C256">
+        <v>0.55300000000000005</v>
+      </c>
+      <c r="D256">
+        <v>15162.815000000001</v>
+      </c>
+      <c r="E256">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5">
+      <c r="A257" t="s">
+        <v>24</v>
+      </c>
+      <c r="B257" t="s">
+        <v>23</v>
+      </c>
+      <c r="C257">
+        <v>0.439</v>
+      </c>
+      <c r="D257">
+        <v>14867.281000000001</v>
+      </c>
+      <c r="E257">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5">
+      <c r="A258" t="s">
+        <v>24</v>
+      </c>
+      <c r="B258" t="s">
+        <v>23</v>
+      </c>
+      <c r="C258">
+        <v>0.57399999999999995</v>
+      </c>
+      <c r="D258">
+        <v>15165.620999999999</v>
+      </c>
+      <c r="E258">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
+        <v>24</v>
+      </c>
+      <c r="B259" t="s">
+        <v>23</v>
+      </c>
+      <c r="C259">
+        <v>0.44</v>
+      </c>
+      <c r="D259">
+        <v>15639.366</v>
+      </c>
+      <c r="E259">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>24</v>
+      </c>
+      <c r="B260" t="s">
+        <v>23</v>
+      </c>
+      <c r="C260">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D260">
+        <v>15171.154</v>
+      </c>
+      <c r="E260">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
+        <v>24</v>
+      </c>
+      <c r="B261" t="s">
+        <v>23</v>
+      </c>
+      <c r="C261">
+        <v>0.51700000000000002</v>
+      </c>
+      <c r="D261">
+        <v>15008.117</v>
+      </c>
+      <c r="E261">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>24</v>
+      </c>
+      <c r="B262" t="s">
+        <v>23</v>
+      </c>
+      <c r="C262">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D262">
+        <v>14334.904</v>
+      </c>
+      <c r="E262">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>26</v>
+      </c>
+      <c r="B263" t="s">
+        <v>25</v>
+      </c>
+      <c r="C263">
+        <v>0.49</v>
+      </c>
+      <c r="D263">
+        <v>5968.4309999999996</v>
+      </c>
+      <c r="E263">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>26</v>
+      </c>
+      <c r="B264" t="s">
+        <v>25</v>
+      </c>
+      <c r="C264">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="D264">
+        <v>5874.14</v>
+      </c>
+      <c r="E264">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5">
+      <c r="A265" t="s">
+        <v>26</v>
+      </c>
+      <c r="B265" t="s">
+        <v>25</v>
+      </c>
+      <c r="C265">
+        <v>0.496</v>
+      </c>
+      <c r="D265">
+        <v>6342.3370000000004</v>
+      </c>
+      <c r="E265">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5">
+      <c r="A266" t="s">
+        <v>26</v>
+      </c>
+      <c r="B266" t="s">
+        <v>25</v>
+      </c>
+      <c r="C266">
+        <v>0.47599999999999998</v>
+      </c>
+      <c r="D266">
+        <v>5976.6620000000003</v>
+      </c>
+      <c r="E266">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5">
+      <c r="A267" t="s">
+        <v>26</v>
+      </c>
+      <c r="B267" t="s">
+        <v>25</v>
+      </c>
+      <c r="C267">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="D267">
+        <v>5957.335</v>
+      </c>
+      <c r="E267">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B268" t="s">
+        <v>25</v>
+      </c>
+      <c r="C268">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D268">
+        <v>5902.9740000000002</v>
+      </c>
+      <c r="E268">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
+        <v>26</v>
+      </c>
+      <c r="B269" t="s">
+        <v>25</v>
+      </c>
+      <c r="C269">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="D269">
+        <v>6208.0640000000003</v>
+      </c>
+      <c r="E269">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
+        <v>26</v>
+      </c>
+      <c r="B270" t="s">
+        <v>25</v>
+      </c>
+      <c r="C270">
+        <v>0.67700000000000005</v>
+      </c>
+      <c r="D270">
+        <v>6076.5559999999996</v>
+      </c>
+      <c r="E270">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>26</v>
+      </c>
+      <c r="B271" t="s">
+        <v>25</v>
+      </c>
+      <c r="C271">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D271">
+        <v>6225.6109999999999</v>
+      </c>
+      <c r="E271">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>27</v>
+      </c>
+      <c r="B272" t="s">
+        <v>25</v>
+      </c>
+      <c r="C272">
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="D272">
+        <v>4067.9870000000001</v>
+      </c>
+      <c r="E272">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" t="s">
+        <v>25</v>
+      </c>
+      <c r="C273">
+        <v>0.83899999999999997</v>
+      </c>
+      <c r="D273">
+        <v>3960.19</v>
+      </c>
+      <c r="E273">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>27</v>
+      </c>
+      <c r="B274" t="s">
+        <v>25</v>
+      </c>
+      <c r="C274">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D274">
+        <v>4127.2950000000001</v>
+      </c>
+      <c r="E274">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
+        <v>27</v>
+      </c>
+      <c r="B275" t="s">
+        <v>25</v>
+      </c>
+      <c r="C275">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="D275">
+        <v>4014.857</v>
+      </c>
+      <c r="E275">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>27</v>
+      </c>
+      <c r="B276" t="s">
+        <v>25</v>
+      </c>
+      <c r="C276">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="D276">
+        <v>4351.6369999999997</v>
+      </c>
+      <c r="E276">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5">
+      <c r="A277" t="s">
+        <v>27</v>
+      </c>
+      <c r="B277" t="s">
+        <v>25</v>
+      </c>
+      <c r="C277">
+        <v>0.80200000000000005</v>
+      </c>
+      <c r="D277">
+        <v>4174.5479999999998</v>
+      </c>
+      <c r="E277">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5">
+      <c r="A278" t="s">
+        <v>27</v>
+      </c>
+      <c r="B278" t="s">
+        <v>25</v>
+      </c>
+      <c r="C278">
+        <v>0.81399999999999995</v>
+      </c>
+      <c r="D278">
+        <v>4032.5419999999999</v>
+      </c>
+      <c r="E278">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5">
+      <c r="A279" t="s">
+        <v>27</v>
+      </c>
+      <c r="B279" t="s">
+        <v>25</v>
+      </c>
+      <c r="C279">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="D279">
+        <v>4042.2620000000002</v>
+      </c>
+      <c r="E279">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5">
+      <c r="A280" t="s">
+        <v>27</v>
+      </c>
+      <c r="B280" t="s">
+        <v>25</v>
+      </c>
+      <c r="C280">
+        <v>0.81100000000000005</v>
+      </c>
+      <c r="D280">
+        <v>3972.0729999999999</v>
+      </c>
+      <c r="E280">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5">
+      <c r="A281" t="s">
+        <v>29</v>
+      </c>
+      <c r="B281" t="s">
+        <v>28</v>
+      </c>
+      <c r="C281">
+        <v>1</v>
+      </c>
+      <c r="D281">
+        <v>2596.9969999999998</v>
+      </c>
+      <c r="E281">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5">
+      <c r="A282" t="s">
+        <v>29</v>
+      </c>
+      <c r="B282" t="s">
+        <v>28</v>
+      </c>
+      <c r="C282">
+        <v>0.876</v>
+      </c>
+      <c r="D282">
+        <v>2496.1860000000001</v>
+      </c>
+      <c r="E282">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5">
+      <c r="A283" t="s">
+        <v>29</v>
+      </c>
+      <c r="B283" t="s">
+        <v>28</v>
+      </c>
+      <c r="C283">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D283">
+        <v>2521.5619999999999</v>
+      </c>
+      <c r="E283">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5">
+      <c r="A284" t="s">
+        <v>29</v>
+      </c>
+      <c r="B284" t="s">
+        <v>28</v>
+      </c>
+      <c r="C284">
+        <v>0.72799999999999998</v>
+      </c>
+      <c r="D284">
+        <v>2515.404</v>
+      </c>
+      <c r="E284">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5">
+      <c r="A285" t="s">
+        <v>29</v>
+      </c>
+      <c r="B285" t="s">
+        <v>28</v>
+      </c>
+      <c r="C285">
+        <v>0.73399999999999999</v>
+      </c>
+      <c r="D285">
+        <v>2529.17</v>
+      </c>
+      <c r="E285">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5">
+      <c r="A286" t="s">
+        <v>29</v>
+      </c>
+      <c r="B286" t="s">
+        <v>28</v>
+      </c>
+      <c r="C286">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="D286">
+        <v>2496.1779999999999</v>
+      </c>
+      <c r="E286">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5">
+      <c r="A287" t="s">
+        <v>29</v>
+      </c>
+      <c r="B287" t="s">
+        <v>28</v>
+      </c>
+      <c r="C287">
+        <v>0.80300000000000005</v>
+      </c>
+      <c r="D287">
+        <v>2513.2820000000002</v>
+      </c>
+      <c r="E287">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5">
+      <c r="A288" t="s">
+        <v>29</v>
+      </c>
+      <c r="B288" t="s">
+        <v>28</v>
+      </c>
+      <c r="C288">
+        <v>1.145</v>
+      </c>
+      <c r="D288">
+        <v>2524.373</v>
+      </c>
+      <c r="E288">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5">
+      <c r="A289" t="s">
+        <v>29</v>
+      </c>
+      <c r="B289" t="s">
+        <v>28</v>
+      </c>
+      <c r="C289">
+        <v>0.82199999999999995</v>
+      </c>
+      <c r="D289">
+        <v>2516.9169999999999</v>
+      </c>
+      <c r="E289">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5">
+      <c r="A290" t="s">
+        <v>31</v>
+      </c>
+      <c r="B290" t="s">
+        <v>30</v>
+      </c>
+      <c r="C290">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D290">
+        <v>1818.5809999999999</v>
+      </c>
+      <c r="E290">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5">
+      <c r="A291" t="s">
+        <v>31</v>
+      </c>
+      <c r="B291" t="s">
+        <v>30</v>
+      </c>
+      <c r="C291">
+        <v>0.47699999999999998</v>
+      </c>
+      <c r="D291">
+        <v>1910.405</v>
+      </c>
+      <c r="E291">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5">
+      <c r="A292" t="s">
+        <v>31</v>
+      </c>
+      <c r="B292" t="s">
+        <v>30</v>
+      </c>
+      <c r="C292">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D292">
+        <v>2104.2689999999998</v>
+      </c>
+      <c r="E292">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5">
+      <c r="A293" t="s">
+        <v>31</v>
+      </c>
+      <c r="B293" t="s">
+        <v>30</v>
+      </c>
+      <c r="C293">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D293">
+        <v>2016.9369999999999</v>
+      </c>
+      <c r="E293">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5">
+      <c r="A294" t="s">
+        <v>31</v>
+      </c>
+      <c r="B294" t="s">
+        <v>30</v>
+      </c>
+      <c r="C294">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="D294">
+        <v>1998.7719999999999</v>
+      </c>
+      <c r="E294">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5">
+      <c r="A295" t="s">
+        <v>31</v>
+      </c>
+      <c r="B295" t="s">
+        <v>30</v>
+      </c>
+      <c r="C295">
+        <v>0.40799999999999997</v>
+      </c>
+      <c r="D295">
+        <v>1839.5740000000001</v>
+      </c>
+      <c r="E295">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5">
+      <c r="A296" t="s">
+        <v>31</v>
+      </c>
+      <c r="B296" t="s">
+        <v>30</v>
+      </c>
+      <c r="C296">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D296">
+        <v>1801.944</v>
+      </c>
+      <c r="E296">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5">
+      <c r="A297" t="s">
+        <v>31</v>
+      </c>
+      <c r="B297" t="s">
+        <v>30</v>
+      </c>
+      <c r="C297">
+        <v>0.496</v>
+      </c>
+      <c r="D297">
+        <v>1826.1969999999999</v>
+      </c>
+      <c r="E297">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5">
+      <c r="A298" t="s">
+        <v>31</v>
+      </c>
+      <c r="B298" t="s">
+        <v>30</v>
+      </c>
+      <c r="C298">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D298">
+        <v>1800.482</v>
+      </c>
+      <c r="E298">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5">
+      <c r="A299" t="s">
+        <v>32</v>
+      </c>
+      <c r="B299" t="s">
+        <v>23</v>
+      </c>
+      <c r="C299">
+        <v>0.60399999999999998</v>
+      </c>
+      <c r="D299">
+        <v>7571.7669999999998</v>
+      </c>
+      <c r="E299">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5">
+      <c r="A300" t="s">
+        <v>32</v>
+      </c>
+      <c r="B300" t="s">
+        <v>23</v>
+      </c>
+      <c r="C300">
+        <v>0.56200000000000006</v>
+      </c>
+      <c r="D300">
+        <v>7231.3220000000001</v>
+      </c>
+      <c r="E300">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5">
+      <c r="A301" t="s">
+        <v>32</v>
+      </c>
+      <c r="B301" t="s">
+        <v>23</v>
+      </c>
+      <c r="C301">
+        <v>0.54300000000000004</v>
+      </c>
+      <c r="D301">
+        <v>7156.4129999999996</v>
+      </c>
+      <c r="E301">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5">
+      <c r="A302" t="s">
+        <v>32</v>
+      </c>
+      <c r="B302" t="s">
+        <v>23</v>
+      </c>
+      <c r="C302">
+        <v>0.61</v>
+      </c>
+      <c r="D302">
+        <v>7183.4369999999999</v>
+      </c>
+      <c r="E302">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5">
+      <c r="A303" t="s">
+        <v>32</v>
+      </c>
+      <c r="B303" t="s">
+        <v>23</v>
+      </c>
+      <c r="C303">
+        <v>0.77400000000000002</v>
+      </c>
+      <c r="D303">
+        <v>7436.4520000000002</v>
+      </c>
+      <c r="E303">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5">
+      <c r="A304" t="s">
+        <v>32</v>
+      </c>
+      <c r="B304" t="s">
+        <v>23</v>
+      </c>
+      <c r="C304">
+        <v>0.66</v>
+      </c>
+      <c r="D304">
+        <v>7398.8739999999998</v>
+      </c>
+      <c r="E304">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5">
+      <c r="A305" t="s">
+        <v>32</v>
+      </c>
+      <c r="B305" t="s">
+        <v>23</v>
+      </c>
+      <c r="C305">
+        <v>0.56100000000000005</v>
+      </c>
+      <c r="D305">
+        <v>7189.84</v>
+      </c>
+      <c r="E305">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5">
+      <c r="A306" t="s">
+        <v>32</v>
+      </c>
+      <c r="B306" t="s">
+        <v>23</v>
+      </c>
+      <c r="C306">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="D306">
+        <v>7157.3360000000002</v>
+      </c>
+      <c r="E306">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5">
+      <c r="A307" t="s">
+        <v>32</v>
+      </c>
+      <c r="B307" t="s">
+        <v>23</v>
+      </c>
+      <c r="C307">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D307">
+        <v>7139.6189999999997</v>
+      </c>
+      <c r="E307">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5">
+      <c r="A308" t="s">
+        <v>32</v>
+      </c>
+      <c r="B308" t="s">
+        <v>25</v>
+      </c>
+      <c r="C308">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D308">
+        <v>3457.3629999999998</v>
+      </c>
+      <c r="E308">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5">
+      <c r="A309" t="s">
+        <v>32</v>
+      </c>
+      <c r="B309" t="s">
+        <v>25</v>
+      </c>
+      <c r="C309">
+        <v>0.59399999999999997</v>
+      </c>
+      <c r="D309">
+        <v>3455.9259999999999</v>
+      </c>
+      <c r="E309">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5">
+      <c r="A310" t="s">
+        <v>32</v>
+      </c>
+      <c r="B310" t="s">
+        <v>25</v>
+      </c>
+      <c r="C310">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D310">
+        <v>3483.6320000000001</v>
+      </c>
+      <c r="E310">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5">
+      <c r="A311" t="s">
+        <v>32</v>
+      </c>
+      <c r="B311" t="s">
+        <v>25</v>
+      </c>
+      <c r="C311">
+        <v>0.65900000000000003</v>
+      </c>
+      <c r="D311">
+        <v>3479.5419999999999</v>
+      </c>
+      <c r="E311">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5">
+      <c r="A312" t="s">
+        <v>32</v>
+      </c>
+      <c r="B312" t="s">
+        <v>25</v>
+      </c>
+      <c r="C312">
+        <v>0.65400000000000003</v>
+      </c>
+      <c r="D312">
+        <v>3436.1619999999998</v>
+      </c>
+      <c r="E312">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5">
+      <c r="A313" t="s">
+        <v>32</v>
+      </c>
+      <c r="B313" t="s">
+        <v>25</v>
+      </c>
+      <c r="C313">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D313">
+        <v>3468.076</v>
+      </c>
+      <c r="E313">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5">
+      <c r="A314" t="s">
+        <v>32</v>
+      </c>
+      <c r="B314" t="s">
+        <v>25</v>
+      </c>
+      <c r="C314">
+        <v>0.57299999999999995</v>
+      </c>
+      <c r="D314">
+        <v>3458.6170000000002</v>
+      </c>
+      <c r="E314">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5">
+      <c r="A315" t="s">
+        <v>32</v>
+      </c>
+      <c r="B315" t="s">
+        <v>25</v>
+      </c>
+      <c r="C315">
+        <v>0.59899999999999998</v>
+      </c>
+      <c r="D315">
+        <v>3484.8470000000002</v>
+      </c>
+      <c r="E315">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5">
+      <c r="A316" t="s">
+        <v>32</v>
+      </c>
+      <c r="B316" t="s">
+        <v>25</v>
+      </c>
+      <c r="C316">
+        <v>0.59299999999999997</v>
+      </c>
+      <c r="D316">
+        <v>3477.7730000000001</v>
+      </c>
+      <c r="E316">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5">
+      <c r="A317" t="s">
+        <v>32</v>
+      </c>
+      <c r="B317" t="s">
+        <v>28</v>
+      </c>
+      <c r="C317">
+        <v>0.63</v>
+      </c>
+      <c r="D317">
+        <v>2273.3029999999999</v>
+      </c>
+      <c r="E317">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5">
+      <c r="A318" t="s">
+        <v>32</v>
+      </c>
+      <c r="B318" t="s">
+        <v>28</v>
+      </c>
+      <c r="C318">
+        <v>0.69799999999999995</v>
+      </c>
+      <c r="D318">
+        <v>2208.279</v>
+      </c>
+      <c r="E318">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5">
+      <c r="A319" t="s">
+        <v>32</v>
+      </c>
+      <c r="B319" t="s">
+        <v>28</v>
+      </c>
+      <c r="C319">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="D319">
+        <v>2167.34</v>
+      </c>
+      <c r="E319">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5">
+      <c r="A320" t="s">
+        <v>32</v>
+      </c>
+      <c r="B320" t="s">
+        <v>28</v>
+      </c>
+      <c r="C320">
+        <v>0.621</v>
+      </c>
+      <c r="D320">
+        <v>2171.835</v>
+      </c>
+      <c r="E320">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5">
+      <c r="A321" t="s">
+        <v>32</v>
+      </c>
+      <c r="B321" t="s">
+        <v>28</v>
+      </c>
+      <c r="C321">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="D321">
+        <v>2200.5100000000002</v>
+      </c>
+      <c r="E321">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5">
+      <c r="A322" t="s">
+        <v>32</v>
+      </c>
+      <c r="B322" t="s">
+        <v>28</v>
+      </c>
+      <c r="C322">
+        <v>0.625</v>
+      </c>
+      <c r="D322">
+        <v>2231.2570000000001</v>
+      </c>
+      <c r="E322">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5">
+      <c r="A323" t="s">
+        <v>32</v>
+      </c>
+      <c r="B323" t="s">
+        <v>28</v>
+      </c>
+      <c r="C323">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D323">
+        <v>2185.3919999999998</v>
+      </c>
+      <c r="E323">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5">
+      <c r="A324" t="s">
+        <v>32</v>
+      </c>
+      <c r="B324" t="s">
+        <v>28</v>
+      </c>
+      <c r="C324">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D324">
+        <v>2164.2020000000002</v>
+      </c>
+      <c r="E324">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5">
+      <c r="A325" t="s">
+        <v>32</v>
+      </c>
+      <c r="B325" t="s">
+        <v>28</v>
+      </c>
+      <c r="C325">
+        <v>0.61599999999999999</v>
+      </c>
+      <c r="D325">
+        <v>2169.3420000000001</v>
+      </c>
+      <c r="E325">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5">
+      <c r="A326" t="s">
+        <v>32</v>
+      </c>
+      <c r="B326" t="s">
+        <v>30</v>
+      </c>
+      <c r="C326">
+        <v>0.48299999999999998</v>
+      </c>
+      <c r="D326">
+        <v>1793.2280000000001</v>
+      </c>
+      <c r="E326">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5">
+      <c r="A327" t="s">
+        <v>32</v>
+      </c>
+      <c r="B327" t="s">
+        <v>30</v>
+      </c>
+      <c r="C327">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D327">
+        <v>1802.925</v>
+      </c>
+      <c r="E327">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5">
+      <c r="A328" t="s">
+        <v>32</v>
+      </c>
+      <c r="B328" t="s">
+        <v>30</v>
+      </c>
+      <c r="C328">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D328">
+        <v>1792.193</v>
+      </c>
+      <c r="E328">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5">
+      <c r="A329" t="s">
+        <v>32</v>
+      </c>
+      <c r="B329" t="s">
+        <v>30</v>
+      </c>
+      <c r="C329">
+        <v>0.496</v>
+      </c>
+      <c r="D329">
+        <v>1800.393</v>
+      </c>
+      <c r="E329">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5">
+      <c r="A330" t="s">
+        <v>32</v>
+      </c>
+      <c r="B330" t="s">
+        <v>30</v>
+      </c>
+      <c r="C330">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="D330">
+        <v>1772.38</v>
+      </c>
+      <c r="E330">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5">
+      <c r="A331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" t="s">
+        <v>30</v>
+      </c>
+      <c r="C331">
+        <v>0.49299999999999999</v>
+      </c>
+      <c r="D331">
+        <v>1783.807</v>
+      </c>
+      <c r="E331">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5">
+      <c r="A332" t="s">
+        <v>32</v>
+      </c>
+      <c r="B332" t="s">
+        <v>30</v>
+      </c>
+      <c r="C332">
+        <v>0.49399999999999999</v>
+      </c>
+      <c r="D332">
+        <v>1782.3710000000001</v>
+      </c>
+      <c r="E332">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5">
+      <c r="A333" t="s">
+        <v>32</v>
+      </c>
+      <c r="B333" t="s">
+        <v>30</v>
+      </c>
+      <c r="C333">
+        <v>0.49199999999999999</v>
+      </c>
+      <c r="D333">
+        <v>1789.29</v>
+      </c>
+      <c r="E333">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5">
+      <c r="A334" t="s">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>30</v>
+      </c>
+      <c r="C334">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="D334">
+        <v>1797.2950000000001</v>
+      </c>
+      <c r="E334">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5">
+      <c r="A335" t="s">
+        <v>33</v>
+      </c>
+      <c r="B335" t="s">
+        <v>23</v>
+      </c>
+      <c r="C335">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="D335">
+        <v>6941.6850000000004</v>
+      </c>
+      <c r="E335">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5">
+      <c r="A336" t="s">
+        <v>33</v>
+      </c>
+      <c r="B336" t="s">
+        <v>23</v>
+      </c>
+      <c r="C336">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D336">
+        <v>6932.116</v>
+      </c>
+      <c r="E336">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
+      <c r="A337" t="s">
+        <v>33</v>
+      </c>
+      <c r="B337" t="s">
+        <v>23</v>
+      </c>
+      <c r="C337">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="D337">
+        <v>6771.759</v>
+      </c>
+      <c r="E337">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
+      <c r="A338" t="s">
+        <v>33</v>
+      </c>
+      <c r="B338" t="s">
+        <v>23</v>
+      </c>
+      <c r="C338">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="D338">
+        <v>6803.2950000000001</v>
+      </c>
+      <c r="E338">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5">
+      <c r="A339" t="s">
+        <v>33</v>
+      </c>
+      <c r="B339" t="s">
+        <v>23</v>
+      </c>
+      <c r="C339">
+        <v>0.64</v>
+      </c>
+      <c r="D339">
+        <v>6821.6779999999999</v>
+      </c>
+      <c r="E339">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5">
+      <c r="A340" t="s">
+        <v>33</v>
+      </c>
+      <c r="B340" t="s">
+        <v>23</v>
+      </c>
+      <c r="C340">
+        <v>0.54100000000000004</v>
+      </c>
+      <c r="D340">
+        <v>7113.3829999999998</v>
+      </c>
+      <c r="E340">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5">
+      <c r="A341" t="s">
+        <v>33</v>
+      </c>
+      <c r="B341" t="s">
+        <v>23</v>
+      </c>
+      <c r="C341">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="D341">
+        <v>7073.9489999999996</v>
+      </c>
+      <c r="E341">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5">
+      <c r="A342" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" t="s">
+        <v>23</v>
+      </c>
+      <c r="C342">
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="D342">
+        <v>6850.0659999999998</v>
+      </c>
+      <c r="E342">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5">
+      <c r="A343" t="s">
+        <v>33</v>
+      </c>
+      <c r="B343" t="s">
+        <v>23</v>
+      </c>
+      <c r="C343">
+        <v>0.623</v>
+      </c>
+      <c r="D343">
+        <v>6874.6769999999997</v>
+      </c>
+      <c r="E343">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5">
+      <c r="A344" t="s">
+        <v>33</v>
+      </c>
+      <c r="B344" t="s">
+        <v>25</v>
+      </c>
+      <c r="C344">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="D344">
+        <v>3122.2730000000001</v>
+      </c>
+      <c r="E344">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5">
+      <c r="A345" t="s">
+        <v>33</v>
+      </c>
+      <c r="B345" t="s">
+        <v>25</v>
+      </c>
+      <c r="C345">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="D345">
+        <v>3132.8780000000002</v>
+      </c>
+      <c r="E345">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5">
+      <c r="A346" t="s">
+        <v>33</v>
+      </c>
+      <c r="B346" t="s">
+        <v>25</v>
+      </c>
+      <c r="C346">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D346">
+        <v>3184.5250000000001</v>
+      </c>
+      <c r="E346">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5">
+      <c r="A347" t="s">
+        <v>33</v>
+      </c>
+      <c r="B347" t="s">
+        <v>25</v>
+      </c>
+      <c r="C347">
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="D347">
+        <v>3137.4279999999999</v>
+      </c>
+      <c r="E347">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5">
+      <c r="A348" t="s">
+        <v>33</v>
+      </c>
+      <c r="B348" t="s">
+        <v>25</v>
+      </c>
+      <c r="C348">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D348">
+        <v>3153.6709999999998</v>
+      </c>
+      <c r="E348">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5">
+      <c r="A349" t="s">
+        <v>33</v>
+      </c>
+      <c r="B349" t="s">
+        <v>25</v>
+      </c>
+      <c r="C349">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="D349">
+        <v>3216.752</v>
+      </c>
+      <c r="E349">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5">
+      <c r="A350" t="s">
+        <v>33</v>
+      </c>
+      <c r="B350" t="s">
+        <v>25</v>
+      </c>
+      <c r="C350">
+        <v>0.59799999999999998</v>
+      </c>
+      <c r="D350">
+        <v>3159.3380000000002</v>
+      </c>
+      <c r="E350">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5">
+      <c r="A351" t="s">
+        <v>33</v>
+      </c>
+      <c r="B351" t="s">
+        <v>25</v>
+      </c>
+      <c r="C351">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D351">
+        <v>3152.2159999999999</v>
+      </c>
+      <c r="E351">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5">
+      <c r="A352" t="s">
+        <v>33</v>
+      </c>
+      <c r="B352" t="s">
+        <v>25</v>
+      </c>
+      <c r="C352">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D352">
+        <v>3162.261</v>
+      </c>
+      <c r="E352">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5">
+      <c r="A353" t="s">
+        <v>33</v>
+      </c>
+      <c r="B353" t="s">
+        <v>28</v>
+      </c>
+      <c r="C353">
+        <v>0.61899999999999999</v>
+      </c>
+      <c r="D353">
+        <v>1806.7940000000001</v>
+      </c>
+      <c r="E353">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5">
+      <c r="A354" t="s">
+        <v>33</v>
+      </c>
+      <c r="B354" t="s">
+        <v>28</v>
+      </c>
+      <c r="C354">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="D354">
+        <v>1826.8309999999999</v>
+      </c>
+      <c r="E354">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5">
+      <c r="A355" t="s">
+        <v>33</v>
+      </c>
+      <c r="B355" t="s">
+        <v>28</v>
+      </c>
+      <c r="C355">
+        <v>0.64800000000000002</v>
+      </c>
+      <c r="D355">
+        <v>1833.615</v>
+      </c>
+      <c r="E355">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5">
+      <c r="A356" t="s">
+        <v>33</v>
+      </c>
+      <c r="B356" t="s">
+        <v>28</v>
+      </c>
+      <c r="C356">
+        <v>0.63</v>
+      </c>
+      <c r="D356">
+        <v>1820.383</v>
+      </c>
+      <c r="E356">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5">
+      <c r="A357" t="s">
+        <v>33</v>
+      </c>
+      <c r="B357" t="s">
+        <v>28</v>
+      </c>
+      <c r="C357">
+        <v>0.626</v>
+      </c>
+      <c r="D357">
+        <v>1895.8030000000001</v>
+      </c>
+      <c r="E357">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5">
+      <c r="A358" t="s">
+        <v>33</v>
+      </c>
+      <c r="B358" t="s">
+        <v>28</v>
+      </c>
+      <c r="C358">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="D358">
+        <v>1948.1289999999999</v>
+      </c>
+      <c r="E358">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5">
+      <c r="A359" t="s">
+        <v>33</v>
+      </c>
+      <c r="B359" t="s">
+        <v>28</v>
+      </c>
+      <c r="C359">
+        <v>0.54200000000000004</v>
+      </c>
+      <c r="D359">
+        <v>1946.617</v>
+      </c>
+      <c r="E359">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5">
+      <c r="A360" t="s">
+        <v>33</v>
+      </c>
+      <c r="B360" t="s">
+        <v>28</v>
+      </c>
+      <c r="C360">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="D360">
+        <v>1887.597</v>
+      </c>
+      <c r="E360">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5">
+      <c r="A361" t="s">
+        <v>33</v>
+      </c>
+      <c r="B361" t="s">
+        <v>28</v>
+      </c>
+      <c r="C361">
+        <v>0.61099999999999999</v>
+      </c>
+      <c r="D361">
+        <v>1857.5820000000001</v>
+      </c>
+      <c r="E361">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5">
+      <c r="A362" t="s">
+        <v>33</v>
+      </c>
+      <c r="B362" t="s">
+        <v>30</v>
+      </c>
+      <c r="C362">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D362">
+        <v>1532.501</v>
+      </c>
+      <c r="E362">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5">
+      <c r="A363" t="s">
+        <v>33</v>
+      </c>
+      <c r="B363" t="s">
+        <v>30</v>
+      </c>
+      <c r="C363">
+        <v>0.51800000000000002</v>
+      </c>
+      <c r="D363">
+        <v>1543.9169999999999</v>
+      </c>
+      <c r="E363">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5">
+      <c r="A364" t="s">
+        <v>33</v>
+      </c>
+      <c r="B364" t="s">
+        <v>30</v>
+      </c>
+      <c r="C364">
+        <v>0.56299999999999994</v>
+      </c>
+      <c r="D364">
+        <v>1546.8820000000001</v>
+      </c>
+      <c r="E364">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5">
+      <c r="A365" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" t="s">
+        <v>30</v>
+      </c>
+      <c r="C365">
+        <v>0.497</v>
+      </c>
+      <c r="D365">
+        <v>1533.289</v>
+      </c>
+      <c r="E365">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5">
+      <c r="A366" t="s">
+        <v>33</v>
+      </c>
+      <c r="B366" t="s">
+        <v>30</v>
+      </c>
+      <c r="C366">
+        <v>0.45300000000000001</v>
+      </c>
+      <c r="D366">
+        <v>1587.31</v>
+      </c>
+      <c r="E366">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5">
+      <c r="A367" t="s">
+        <v>33</v>
+      </c>
+      <c r="B367" t="s">
+        <v>30</v>
+      </c>
+      <c r="C367">
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="D367">
+        <v>1543.337</v>
+      </c>
+      <c r="E367">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5">
+      <c r="A368" t="s">
+        <v>33</v>
+      </c>
+      <c r="B368" t="s">
+        <v>30</v>
+      </c>
+      <c r="C368">
+        <v>0.503</v>
+      </c>
+      <c r="D368">
+        <v>1555.8689999999999</v>
+      </c>
+      <c r="E368">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5">
+      <c r="A369" t="s">
+        <v>33</v>
+      </c>
+      <c r="B369" t="s">
+        <v>30</v>
+      </c>
+      <c r="C369">
+        <v>0.46800000000000003</v>
+      </c>
+      <c r="D369">
+        <v>1531.3889999999999</v>
+      </c>
+      <c r="E369">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5">
+      <c r="A370" t="s">
+        <v>33</v>
+      </c>
+      <c r="B370" t="s">
+        <v>30</v>
+      </c>
+      <c r="C370">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="D370">
+        <v>1545.615</v>
+      </c>
+      <c r="E370">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5">
+      <c r="A371" t="s">
+        <v>34</v>
+      </c>
+      <c r="B371" t="s">
+        <v>23</v>
+      </c>
+      <c r="C371">
+        <v>0.78900000000000003</v>
+      </c>
+      <c r="D371">
+        <v>9376.1720000000005</v>
+      </c>
+      <c r="E371">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5">
+      <c r="A372" t="s">
+        <v>34</v>
+      </c>
+      <c r="B372" t="s">
+        <v>23</v>
+      </c>
+      <c r="C372">
+        <v>0.80100000000000005</v>
+      </c>
+      <c r="D372">
+        <v>9225.3029999999999</v>
+      </c>
+      <c r="E372">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5">
+      <c r="A373" t="s">
+        <v>34</v>
+      </c>
+      <c r="B373" t="s">
+        <v>23</v>
+      </c>
+      <c r="C373">
+        <v>0.84599999999999997</v>
+      </c>
+      <c r="D373">
+        <v>9305.6280000000006</v>
+      </c>
+      <c r="E373">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5">
+      <c r="A374" t="s">
+        <v>34</v>
+      </c>
+      <c r="B374" t="s">
+        <v>23</v>
+      </c>
+      <c r="C374">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D374">
+        <v>9343</v>
+      </c>
+      <c r="E374">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5">
+      <c r="A375" t="s">
+        <v>34</v>
+      </c>
+      <c r="B375" t="s">
+        <v>23</v>
+      </c>
+      <c r="C375">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D375">
+        <v>9420.7990000000009</v>
+      </c>
+      <c r="E375">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5">
+      <c r="A376" t="s">
+        <v>34</v>
+      </c>
+      <c r="B376" t="s">
+        <v>23</v>
+      </c>
+      <c r="C376">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D376">
+        <v>9503.3940000000002</v>
+      </c>
+      <c r="E376">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5">
+      <c r="A377" t="s">
+        <v>34</v>
+      </c>
+      <c r="B377" t="s">
+        <v>23</v>
+      </c>
+      <c r="C377">
+        <v>0.81699999999999995</v>
+      </c>
+      <c r="D377">
+        <v>9948.0480000000007</v>
+      </c>
+      <c r="E377">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5">
+      <c r="A378" t="s">
+        <v>34</v>
+      </c>
+      <c r="B378" t="s">
+        <v>23</v>
+      </c>
+      <c r="C378">
+        <v>0.77800000000000002</v>
+      </c>
+      <c r="D378">
+        <v>9545.357</v>
+      </c>
+      <c r="E378">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5">
+      <c r="A379" t="s">
+        <v>34</v>
+      </c>
+      <c r="B379" t="s">
+        <v>23</v>
+      </c>
+      <c r="C379">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="D379">
+        <v>9447.3029999999999</v>
+      </c>
+      <c r="E379">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5">
+      <c r="A380" t="s">
+        <v>34</v>
+      </c>
+      <c r="B380" t="s">
+        <v>25</v>
+      </c>
+      <c r="C380">
+        <v>0.69599999999999995</v>
+      </c>
+      <c r="D380">
+        <v>3336.8850000000002</v>
+      </c>
+      <c r="E380">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5">
+      <c r="A381" t="s">
+        <v>34</v>
+      </c>
+      <c r="B381" t="s">
+        <v>25</v>
+      </c>
+      <c r="C381">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="D381">
+        <v>3335.105</v>
+      </c>
+      <c r="E381">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5">
+      <c r="A382" t="s">
+        <v>34</v>
+      </c>
+      <c r="B382" t="s">
+        <v>25</v>
+      </c>
+      <c r="C382">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="D382">
+        <v>3326.078</v>
+      </c>
+      <c r="E382">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5">
+      <c r="A383" t="s">
+        <v>34</v>
+      </c>
+      <c r="B383" t="s">
+        <v>25</v>
+      </c>
+      <c r="C383">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="D383">
+        <v>3331.3180000000002</v>
+      </c>
+      <c r="E383">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5">
+      <c r="A384" t="s">
+        <v>34</v>
+      </c>
+      <c r="B384" t="s">
+        <v>25</v>
+      </c>
+      <c r="C384">
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="D384">
+        <v>3363.5479999999998</v>
+      </c>
+      <c r="E384">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5">
+      <c r="A385" t="s">
+        <v>34</v>
+      </c>
+      <c r="B385" t="s">
+        <v>25</v>
+      </c>
+      <c r="C385">
+        <v>0.876</v>
+      </c>
+      <c r="D385">
+        <v>3328.21</v>
+      </c>
+      <c r="E385">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5">
+      <c r="A386" t="s">
+        <v>34</v>
+      </c>
+      <c r="B386" t="s">
+        <v>25</v>
+      </c>
+      <c r="C386">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="D386">
+        <v>3367.2550000000001</v>
+      </c>
+      <c r="E386">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5">
+      <c r="A387" t="s">
+        <v>34</v>
+      </c>
+      <c r="B387" t="s">
+        <v>25</v>
+      </c>
+      <c r="C387">
+        <v>0.68400000000000005</v>
+      </c>
+      <c r="D387">
+        <v>3379.3670000000002</v>
+      </c>
+      <c r="E387">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5">
+      <c r="A388" t="s">
+        <v>34</v>
+      </c>
+      <c r="B388" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="D388">
+        <v>3361.1689999999999</v>
+      </c>
+      <c r="E388">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5">
+      <c r="A389" t="s">
+        <v>34</v>
+      </c>
+      <c r="B389" t="s">
+        <v>28</v>
+      </c>
+      <c r="C389">
+        <v>0.73299999999999998</v>
+      </c>
+      <c r="D389">
+        <v>2017.877</v>
+      </c>
+      <c r="E389">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5">
+      <c r="A390" t="s">
+        <v>34</v>
+      </c>
+      <c r="B390" t="s">
+        <v>28</v>
+      </c>
+      <c r="C390">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D390">
+        <v>2024.6130000000001</v>
+      </c>
+      <c r="E390">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5">
+      <c r="A391" t="s">
+        <v>34</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391">
+        <v>0.70599999999999996</v>
+      </c>
+      <c r="D391">
+        <v>2032.04</v>
+      </c>
+      <c r="E391">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5">
+      <c r="A392" t="s">
+        <v>34</v>
+      </c>
+      <c r="B392" t="s">
+        <v>28</v>
+      </c>
+      <c r="C392">
+        <v>0.86499999999999999</v>
+      </c>
+      <c r="D392">
+        <v>2099.5619999999999</v>
+      </c>
+      <c r="E392">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5">
+      <c r="A393" t="s">
+        <v>34</v>
+      </c>
+      <c r="B393" t="s">
+        <v>28</v>
+      </c>
+      <c r="C393">
+        <v>0.876</v>
+      </c>
+      <c r="D393">
+        <v>2160.6680000000001</v>
+      </c>
+      <c r="E393">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5">
+      <c r="A394" t="s">
+        <v>34</v>
+      </c>
+      <c r="B394" t="s">
+        <v>28</v>
+      </c>
+      <c r="C394">
+        <v>0.81799999999999995</v>
+      </c>
+      <c r="D394">
+        <v>2087.663</v>
+      </c>
+      <c r="E394">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5">
+      <c r="A395" t="s">
+        <v>34</v>
+      </c>
+      <c r="B395" t="s">
+        <v>28</v>
+      </c>
+      <c r="C395">
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="D395">
+        <v>2050.4209999999998</v>
+      </c>
+      <c r="E395">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5">
+      <c r="A396" t="s">
+        <v>34</v>
+      </c>
+      <c r="B396" t="s">
+        <v>28</v>
+      </c>
+      <c r="C396">
+        <v>0.72</v>
+      </c>
+      <c r="D396">
+        <v>2030.3610000000001</v>
+      </c>
+      <c r="E396">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5">
+      <c r="A397" t="s">
+        <v>34</v>
+      </c>
+      <c r="B397" t="s">
+        <v>28</v>
+      </c>
+      <c r="C397">
+        <v>0.80400000000000005</v>
+      </c>
+      <c r="D397">
+        <v>2047.492</v>
+      </c>
+      <c r="E397">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5">
+      <c r="A398" t="s">
+        <v>34</v>
+      </c>
+      <c r="B398" t="s">
+        <v>30</v>
+      </c>
+      <c r="C398">
+        <v>0.46500000000000002</v>
+      </c>
+      <c r="D398">
+        <v>1586.4</v>
+      </c>
+      <c r="E398">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5">
+      <c r="A399" t="s">
+        <v>34</v>
+      </c>
+      <c r="B399" t="s">
+        <v>30</v>
+      </c>
+      <c r="C399">
+        <v>0.58199999999999996</v>
+      </c>
+      <c r="D399">
+        <v>1582.1769999999999</v>
+      </c>
+      <c r="E399">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5">
+      <c r="A400" t="s">
+        <v>34</v>
+      </c>
+      <c r="B400" t="s">
+        <v>30</v>
+      </c>
+      <c r="C400">
+        <v>0.46700000000000003</v>
+      </c>
+      <c r="D400">
+        <v>1598.39</v>
+      </c>
+      <c r="E400">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5">
+      <c r="A401" t="s">
+        <v>34</v>
+      </c>
+      <c r="B401" t="s">
+        <v>30</v>
+      </c>
+      <c r="C401">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D401">
+        <v>1631.93</v>
+      </c>
+      <c r="E401">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5">
+      <c r="A402" t="s">
+        <v>34</v>
+      </c>
+      <c r="B402" t="s">
+        <v>30</v>
+      </c>
+      <c r="C402">
+        <v>0.4</v>
+      </c>
+      <c r="D402">
+        <v>1590.6489999999999</v>
+      </c>
+      <c r="E402">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5">
+      <c r="A403" t="s">
+        <v>34</v>
+      </c>
+      <c r="B403" t="s">
+        <v>30</v>
+      </c>
+      <c r="C403">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="D403">
+        <v>1595.751</v>
+      </c>
+      <c r="E403">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5">
+      <c r="A404" t="s">
+        <v>34</v>
+      </c>
+      <c r="B404" t="s">
+        <v>30</v>
+      </c>
+      <c r="C404">
+        <v>0.39800000000000002</v>
+      </c>
+      <c r="D404">
+        <v>1583.1679999999999</v>
+      </c>
+      <c r="E404">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5">
+      <c r="A405" t="s">
+        <v>34</v>
+      </c>
+      <c r="B405" t="s">
+        <v>30</v>
+      </c>
+      <c r="C405">
+        <v>0.4</v>
+      </c>
+      <c r="D405">
+        <v>1583.877</v>
+      </c>
+      <c r="E405">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5">
+      <c r="A406" t="s">
+        <v>34</v>
+      </c>
+      <c r="B406" t="s">
+        <v>30</v>
+      </c>
+      <c r="C406">
+        <v>0.39400000000000002</v>
+      </c>
+      <c r="D406">
+        <v>1608.3440000000001</v>
+      </c>
+      <c r="E406">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4863,10 +7500,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726389FE-9F54-43A2-AF29-2C57D762760D}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5604,23 +8241,23 @@
       <c r="B27" t="s">
         <v>4</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="4">
         <f>COUNTIFS('Q1'!A:A,Q1_analise!A27,'Q1'!B:B,Q1_analise!B27)</f>
         <v>9</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D27" s="4">
         <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A27,'Q1'!B:B,Q1_analise!B27)</f>
         <v>6787.9251111111116</v>
       </c>
-      <c r="E27" s="10">
+      <c r="E27" s="4">
         <f t="shared" ref="E27" si="11">D27/1000</f>
         <v>6.7879251111111119</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
@@ -5629,48 +8266,471 @@
       <c r="B28" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28">
         <f>COUNTIFS('Q1'!A:A,Q1_analise!A28,'Q1'!B:B,Q1_analise!B28)</f>
         <v>9</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D28">
         <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A28,'Q1'!B:B,Q1_analise!B28)</f>
         <v>1177.4255555555555</v>
       </c>
-      <c r="E28" s="10">
+      <c r="E28">
         <f t="shared" ref="E28:E29" si="12">D28/1000</f>
         <v>1.1774255555555555</v>
       </c>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" t="s">
+      <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="2">
         <f>COUNTIFS('Q1'!A:A,Q1_analise!A29,'Q1'!B:B,Q1_analise!B29)</f>
         <v>9</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D29" s="2">
         <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A29,'Q1'!B:B,Q1_analise!B29)</f>
         <v>3841.1545555555558</v>
       </c>
-      <c r="E29" s="10">
+      <c r="E29" s="2">
         <f t="shared" si="12"/>
         <v>3.8411545555555557</v>
       </c>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A30,'Q1'!B:B,Q1_analise!B30)</f>
+        <v>9</v>
+      </c>
+      <c r="D30" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A30,'Q1'!B:B,Q1_analise!B30)</f>
+        <v>14957.559666666664</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" ref="E30:E34" si="13">D30/1000</f>
+        <v>14.957559666666665</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A31,'Q1'!B:B,Q1_analise!B31)</f>
+        <v>9</v>
+      </c>
+      <c r="D31" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A31,'Q1'!B:B,Q1_analise!B31)</f>
+        <v>6059.123333333333</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="13"/>
+        <v>6.059123333333333</v>
+      </c>
+      <c r="F31" s="10">
+        <f>$E$30-E31</f>
+        <v>8.8984363333333327</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A32,'Q1'!B:B,Q1_analise!B32)</f>
+        <v>9</v>
+      </c>
+      <c r="D32" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A32,'Q1'!B:B,Q1_analise!B32)</f>
+        <v>4082.5989999999997</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="13"/>
+        <v>4.0825990000000001</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" ref="F32:F34" si="14">$E$30-E32</f>
+        <v>10.874960666666665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A33,'Q1'!B:B,Q1_analise!B33)</f>
+        <v>9</v>
+      </c>
+      <c r="D33" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A33,'Q1'!B:B,Q1_analise!B33)</f>
+        <v>2523.3409999999999</v>
+      </c>
+      <c r="E33" s="2">
+        <f t="shared" si="13"/>
+        <v>2.5233409999999998</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" si="14"/>
+        <v>12.434218666666665</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A34,'Q1'!B:B,Q1_analise!B34)</f>
+        <v>9</v>
+      </c>
+      <c r="D34" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A34,'Q1'!B:B,Q1_analise!B34)</f>
+        <v>1901.9067777777777</v>
+      </c>
+      <c r="E34" s="2">
+        <f t="shared" si="13"/>
+        <v>1.9019067777777778</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="14"/>
+        <v>13.055652888888886</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A35,'Q1'!B:B,Q1_analise!B35)</f>
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A35,'Q1'!B:B,Q1_analise!B35)</f>
+        <v>7273.8955555555549</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ref="E35:E38" si="15">D35/1000</f>
+        <v>7.2738955555555549</v>
+      </c>
+      <c r="F35">
+        <f>E30-E35</f>
+        <v>7.6836641111111099</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A36,'Q1'!B:B,Q1_analise!B36)</f>
+        <v>9</v>
+      </c>
+      <c r="D36">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A36,'Q1'!B:B,Q1_analise!B36)</f>
+        <v>3466.8820000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="15"/>
+        <v>3.466882</v>
+      </c>
+      <c r="F36">
+        <f>$E$35-E36</f>
+        <v>3.8070135555555549</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A37,'Q1'!B:B,Q1_analise!B37)</f>
+        <v>9</v>
+      </c>
+      <c r="D37">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A37,'Q1'!B:B,Q1_analise!B37)</f>
+        <v>2196.8288888888892</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="15"/>
+        <v>2.1968288888888892</v>
+      </c>
+      <c r="F37">
+        <f>$E$35-E37</f>
+        <v>5.0770666666666653</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A38,'Q1'!B:B,Q1_analise!B38)</f>
+        <v>9</v>
+      </c>
+      <c r="D38" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A38,'Q1'!B:B,Q1_analise!B38)</f>
+        <v>1790.4313333333337</v>
+      </c>
+      <c r="E38" s="2">
+        <f t="shared" si="15"/>
+        <v>1.7904313333333337</v>
+      </c>
+      <c r="F38" s="2">
+        <f>$E$35-E38</f>
+        <v>5.4834642222222207</v>
+      </c>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A39,'Q1'!B:B,Q1_analise!B39)</f>
+        <v>9</v>
+      </c>
+      <c r="D39">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A39,'Q1'!B:B,Q1_analise!B39)</f>
+        <v>6909.1786666666658</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E42" si="16">D39/1000</f>
+        <v>6.9091786666666657</v>
+      </c>
+      <c r="F39">
+        <f>E30-E39</f>
+        <v>8.0483809999999991</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C40">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A40,'Q1'!B:B,Q1_analise!B40)</f>
+        <v>9</v>
+      </c>
+      <c r="D40">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A40,'Q1'!B:B,Q1_analise!B40)</f>
+        <v>3157.9268888888887</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="16"/>
+        <v>3.1579268888888885</v>
+      </c>
+      <c r="F40">
+        <f>$E$39-E40</f>
+        <v>3.7512517777777772</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A41,'Q1'!B:B,Q1_analise!B41)</f>
+        <v>9</v>
+      </c>
+      <c r="D41">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A41,'Q1'!B:B,Q1_analise!B41)</f>
+        <v>1869.2612222222222</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="16"/>
+        <v>1.8692612222222222</v>
+      </c>
+      <c r="F41">
+        <f>$E$39-E41</f>
+        <v>5.039917444444443</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A42,'Q1'!B:B,Q1_analise!B42)</f>
+        <v>9</v>
+      </c>
+      <c r="D42" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A42,'Q1'!B:B,Q1_analise!B42)</f>
+        <v>1546.6787777777777</v>
+      </c>
+      <c r="E42" s="2">
+        <f t="shared" si="16"/>
+        <v>1.5466787777777777</v>
+      </c>
+      <c r="F42" s="2">
+        <f>$E$39-E42</f>
+        <v>5.3624998888888875</v>
+      </c>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A43,'Q1'!B:B,Q1_analise!B43)</f>
+        <v>9</v>
+      </c>
+      <c r="D43">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A43,'Q1'!B:B,Q1_analise!B43)</f>
+        <v>9457.2226666666666</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43:E46" si="17">D43/1000</f>
+        <v>9.4572226666666666</v>
+      </c>
+      <c r="F43">
+        <f>E39-E43</f>
+        <v>-2.5480440000000009</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" t="s">
+        <v>34</v>
+      </c>
+      <c r="B44" t="s">
+        <v>25</v>
+      </c>
+      <c r="C44">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A44,'Q1'!B:B,Q1_analise!B44)</f>
+        <v>9</v>
+      </c>
+      <c r="D44">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A44,'Q1'!B:B,Q1_analise!B44)</f>
+        <v>3347.659444444444</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="17"/>
+        <v>3.3476594444444441</v>
+      </c>
+      <c r="F44">
+        <f>$E$40-E44</f>
+        <v>-0.18973255555555557</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B45" t="s">
+        <v>28</v>
+      </c>
+      <c r="C45">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A45,'Q1'!B:B,Q1_analise!B45)</f>
+        <v>9</v>
+      </c>
+      <c r="D45">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A45,'Q1'!B:B,Q1_analise!B45)</f>
+        <v>2061.1885555555555</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="17"/>
+        <v>2.0611885555555554</v>
+      </c>
+      <c r="F45">
+        <f>$E$40-E45</f>
+        <v>1.0967383333333331</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="2">
+        <f>COUNTIFS('Q1'!A:A,Q1_analise!A46,'Q1'!B:B,Q1_analise!B46)</f>
+        <v>9</v>
+      </c>
+      <c r="D46" s="2">
+        <f>AVERAGEIFS('Q1'!D:D,'Q1'!A:A,Q1_analise!A46,'Q1'!B:B,Q1_analise!B46)</f>
+        <v>1595.6317777777779</v>
+      </c>
+      <c r="E46" s="2">
+        <f t="shared" si="17"/>
+        <v>1.5956317777777778</v>
+      </c>
+      <c r="F46" s="2">
+        <f>$E$40-E46</f>
+        <v>1.5622951111111107</v>
+      </c>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+      <c r="I46" s="2"/>
+      <c r="J46" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
